--- a/medicine/Médecine vétérinaire/Maurice_Bayrou/Maurice_Bayrou.xlsx
+++ b/medicine/Médecine vétérinaire/Maurice_Bayrou/Maurice_Bayrou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maurice Bayrou, né le 2 mars 1905 à Lanta (Haute-Garonne) et mort le 29 décembre 1996 à Lamorlaye (Oise), est un homme politique français, ingénieur agricole et vétérinaire de profession.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 29 août 1940, Maurice Bayrou participe au ralliement de l'Oubangui-Chari, où il était inspecteur du service d'élevage, à la France libre. Il s'engage dans le 2e bataillon de marche de l'Afrique-Équatoriale française (AEF), combat en Syrie, puis en Égypte et en Libye (bataille de Bir Hakeim). Grièvement blessé, il est hospitalisé, puis reprend en 1943 un commandement en Afrique équatoriale. Il participe aux liquidations des dernières poches allemandes en 1944-1945. Il est Compagnon de la Libération - décret du 28 mai 1945.
 En 1945, il devient inspecteur général du service d'élevage en AEF.
@@ -547,12 +561,14 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Grand officier de la Légion d'honneur
- Compagnon de la Libération par décret du 28 mai 1945[1]
+ Compagnon de la Libération par décret du 28 mai 1945
  Croix de guerre 1939-1945 (3 citations)
- Médaille de la Résistance française, avec rosette par décret du 31 mars 1947[2]
+ Médaille de la Résistance française, avec rosette par décret du 31 mars 1947
  Chevalier de l'ordre du Mérite agricole
  Médaille coloniale avec agrafes Afrique-Équatoriale française, Libye, bataille de Bir Hakeim
  Insigne des blessés militaires
